--- a/proto-2/build/interventions.xlsx
+++ b/proto-2/build/interventions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E74B19-F813-7B45-99C6-67BE309DA57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEFF5C6-E44A-C342-B160-4BEFFD6AF783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{9E585174-4B0F-B84D-87B8-6A2429C7E59D}"/>
   </bookViews>
@@ -64,18 +64,6 @@
     <t>neg-3</t>
   </si>
   <si>
-    <t>outcome-bad</t>
-  </si>
-  <si>
-    <t>outcome-ok</t>
-  </si>
-  <si>
-    <t>outcome-good</t>
-  </si>
-  <si>
-    <t>outcome-great</t>
-  </si>
-  <si>
     <t>Approve a fish farm</t>
   </si>
   <si>
@@ -539,6 +527,18 @@
   </si>
   <si>
     <t xml:space="preserve">Municipality is looking to brand the town for 'extreme heat tourism', in order to capture the 'cold euro' from northern European tourists looking for hot holiday action. </t>
+  </si>
+  <si>
+    <t>outcome-0</t>
+  </si>
+  <si>
+    <t>outcome-1</t>
+  </si>
+  <si>
+    <t>outcome-2</t>
+  </si>
+  <si>
+    <t>outcome-3</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1461,16 +1461,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="153" x14ac:dyDescent="0.2">
@@ -1478,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1499,34 +1499,34 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="119" x14ac:dyDescent="0.2">
@@ -1534,10 +1534,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -1573,16 +1573,16 @@
         <v>13</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -1590,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1629,16 +1629,16 @@
         <v>13</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -1646,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
         <v>-1</v>
@@ -1685,16 +1685,16 @@
         <v>13</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -1702,10 +1702,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>-1</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
@@ -1741,16 +1741,16 @@
         <v>13</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -1758,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1797,16 +1797,16 @@
         <v>13</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1853,16 +1853,16 @@
         <v>13</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -1870,10 +1870,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -1891,34 +1891,34 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -1926,10 +1926,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1">
         <v>-2</v>
@@ -1947,34 +1947,34 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -1982,10 +1982,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1">
         <v>-2</v>
@@ -2003,34 +2003,34 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2038,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1">
         <v>-1</v>
@@ -2077,16 +2077,16 @@
         <v>13</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="153" x14ac:dyDescent="0.2">
@@ -2094,10 +2094,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
         <v>-1</v>
@@ -2133,16 +2133,16 @@
         <v>13</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -2150,10 +2150,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2189,16 +2189,16 @@
         <v>13</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="119" x14ac:dyDescent="0.2">
@@ -2206,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -2245,16 +2245,16 @@
         <v>13</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="136" x14ac:dyDescent="0.2">
@@ -2262,10 +2262,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2283,34 +2283,34 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="P16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -2318,10 +2318,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -2339,34 +2339,34 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="119" x14ac:dyDescent="0.2">
@@ -2374,10 +2374,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2395,34 +2395,34 @@
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="136" x14ac:dyDescent="0.2">
@@ -2430,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -2451,34 +2451,34 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -2486,10 +2486,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1">
         <v>-1</v>
@@ -2525,16 +2525,16 @@
         <v>13</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="153" x14ac:dyDescent="0.2">
@@ -2542,10 +2542,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1">
         <v>-1</v>
@@ -2581,16 +2581,16 @@
         <v>13</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="119" x14ac:dyDescent="0.2">
@@ -2598,10 +2598,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1">
         <v>-1</v>
@@ -2619,28 +2619,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -2648,10 +2648,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2669,34 +2669,34 @@
         <v>3</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="O23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -2704,10 +2704,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -2743,16 +2743,16 @@
         <v>13</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="119" x14ac:dyDescent="0.2">
@@ -2760,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2781,34 +2781,34 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="85" x14ac:dyDescent="0.2">
@@ -2816,10 +2816,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D26" s="1">
         <v>-1</v>
@@ -2855,16 +2855,16 @@
         <v>13</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="153" x14ac:dyDescent="0.2">
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1">
         <v>-1</v>
@@ -2911,16 +2911,16 @@
         <v>13</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -2928,10 +2928,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -2967,16 +2967,16 @@
         <v>13</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="102" x14ac:dyDescent="0.2">
@@ -2984,10 +2984,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -3023,19 +3023,23 @@
         <v>13</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;11&amp;KFF8C00 RESTRICTED&amp;1#_x000D_</oddHeader>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;KFF8C00 RESTRICTED</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/proto-2/build/interventions.xlsx
+++ b/proto-2/build/interventions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEFF5C6-E44A-C342-B160-4BEFFD6AF783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B4870-F160-1A44-A4CB-CA798E7EEE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{9E585174-4B0F-B84D-87B8-6A2429C7E59D}"/>
   </bookViews>
@@ -545,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -678,6 +678,13 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1022,9 +1029,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1405,76 +1415,77 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
     <col min="9" max="18" width="27" style="1" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1530,7 +1541,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1586,7 +1597,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1642,7 +1653,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1698,7 +1709,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1754,7 +1765,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1810,7 +1821,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1866,7 +1877,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1922,7 +1933,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1978,7 +1989,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2034,7 +2045,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2090,7 +2101,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="153" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2146,7 +2157,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2202,7 +2213,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="119" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2258,7 +2269,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="136" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2314,7 +2325,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2370,7 +2381,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="119" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2426,7 +2437,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2482,7 +2493,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2538,7 +2549,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="153" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2594,7 +2605,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2644,7 +2655,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2700,7 +2711,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="102" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2756,7 +2767,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2812,7 +2823,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="85" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2868,7 +2879,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="153" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2924,7 +2935,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2980,7 +2991,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">

--- a/proto-2/build/interventions.xlsx
+++ b/proto-2/build/interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B4870-F160-1A44-A4CB-CA798E7EEE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27829457-FD09-1049-BF2F-BFBCE2C8BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{9E585174-4B0F-B84D-87B8-6A2429C7E59D}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{9E585174-4B0F-B84D-87B8-6A2429C7E59D}"/>
   </bookViews>
   <sheets>
     <sheet name="interventions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -539,6 +539,60 @@
   </si>
   <si>
     <t>outcome-3</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>fish_farm.jpg</t>
+  </si>
+  <si>
+    <t>digital_twin.jpg</t>
+  </si>
+  <si>
+    <t>dashboard.jpg</t>
+  </si>
+  <si>
+    <t>golf_course.jpg</t>
+  </si>
+  <si>
+    <t>reservoir.jpg</t>
+  </si>
+  <si>
+    <t>smart_meters.jpg</t>
+  </si>
+  <si>
+    <t>smart_irrigation.jpg</t>
+  </si>
+  <si>
+    <t>sea_wall.jpg</t>
+  </si>
+  <si>
+    <t>beavers.jpg</t>
+  </si>
+  <si>
+    <t>cool_roofs.jpg</t>
+  </si>
+  <si>
+    <t>green_walls.jpg</t>
+  </si>
+  <si>
+    <t>flood_plain.jpg</t>
+  </si>
+  <si>
+    <t>monofarm.jpg</t>
+  </si>
+  <si>
+    <t>protect_local_crops.jpg</t>
+  </si>
+  <si>
+    <t>water_delivery_service.png</t>
+  </si>
+  <si>
+    <t>lesiure_resort.jpg</t>
+  </si>
+  <si>
+    <t>heat_tourism.jpg</t>
   </si>
 </sst>
 </file>
@@ -1412,10 +1466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECE7E20-7D40-8A43-AAEA-EAE1ABFF8E25}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,10 +1482,11 @@
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="1"/>
     <col min="9" max="18" width="27" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="38.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1483,8 +1541,11 @@
       <c r="R1" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1539,8 +1600,11 @@
       <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1651,8 +1718,11 @@
       <c r="R4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S4" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1707,8 +1777,11 @@
       <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1763,8 +1836,11 @@
       <c r="R6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S6" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1820,7 +1896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1875,8 +1951,11 @@
       <c r="R8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S8" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1931,8 +2010,11 @@
       <c r="R9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S9" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1987,8 +2069,11 @@
       <c r="R10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S10" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -2043,8 +2128,11 @@
       <c r="R11" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="S11" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2099,8 +2187,11 @@
       <c r="R12" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S12" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2155,8 +2246,11 @@
       <c r="R13" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S13" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2211,8 +2305,11 @@
       <c r="R14" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S14" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2267,8 +2364,11 @@
       <c r="R15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S15" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="136" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2323,8 +2423,11 @@
       <c r="R16" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="S16" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2379,8 +2482,11 @@
       <c r="R17" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="S17" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2435,8 +2541,11 @@
       <c r="R18" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="S18" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2491,8 +2600,11 @@
       <c r="R19" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="S19" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2547,8 +2659,11 @@
       <c r="R20" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S20" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2603,8 +2718,11 @@
       <c r="R21" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S21" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2653,8 +2771,11 @@
       <c r="R22" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="S22" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2709,8 +2830,11 @@
       <c r="R23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S23" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2766,7 +2890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2821,8 +2945,11 @@
       <c r="R25" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="S25" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -2877,8 +3004,11 @@
       <c r="R26" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S26" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2933,8 +3063,11 @@
       <c r="R27" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="S27" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +3123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -3044,6 +3177,9 @@
       </c>
       <c r="R29" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
